--- a/local/data/IPTV.xlsx
+++ b/local/data/IPTV.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="A1:E381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2664,7 +2664,7 @@
         <v>0.1</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137">
         <v>0.27033333300000001</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B145">
         <v>0.35449000000000003</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B169">
         <v>0.34992000000000001</v>
@@ -3270,13 +3270,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173">
         <v>0.322333333</v>
